--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_60.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_60.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,175 +488,178 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['C#:7', 'F#:min', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_140</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3055555555555556</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(4.74, 8.62)]</t>
+          <t>[['G', 'C', 'G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(14.2, 18.8)]</t>
+          <t>[('0:02:04.920000', '0:02:09.880000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:00.465952', '0:00:08.500330')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
-        </is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(9.24, 17.72)]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(21.08, 24.32)]</t>
+          <t>[('0:02:34.020000', '0:02:40.380000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:02:03.220000', '0:02:07.180000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(107.9, 109.3)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(66.92, 84.54)]</t>
+          <t>[('0:00:01.820000', '0:00:20.520000'), ('0:00:55.140000', '0:01:15.900000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:02.060000', '0:00:23.220000'), ('0:00:57.580000', '0:01:19.360000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_111</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5515151515151515</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(1.9, 5.58)]</t>
+          <t>[['C', 'G:7', 'C', 'G:7', 'C', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(6.8, 12.66)]</t>
+          <t>[('0:01:52.140000', '0:01:54.760000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:01:10.519024', '0:01:22.732721')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -659,182 +667,199 @@
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6708333333333334</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min', 'F#:min']]</t>
+          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(9.9, 26.98)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(3.32, 8.68)]</t>
+          <t>[('0:00:24.520000', '0:00:54.820000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:02:01.740000', '0:02:05')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_94</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_43</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['A#:min/F', 'F:7', 'A#:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(13.52, 51.46)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(16.88, 60.84)]</t>
+          <t>[('0:01:24.620000', '0:01:31.740000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:41.320000', '0:00:48.940000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.2461538461538462</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(6.74, 21.54)]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(8.34, 26.4)]</t>
+          <t>[('0:02:00.220000', '0:02:01.920000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:01:10.380000', '0:01:30.980000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G:min', 'A:hdim7/C', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_147</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.2657342657342657</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['F:min/G#', 'G:hdim7/C#', 'C:7', 'F:min']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(9.18, 14.22)]</t>
+          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(105.4, 123.26)]</t>
+          <t>[('0:00:19.780000', '0:00:25.820000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:01:10.060000', '0:01:27.320000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
@@ -843,178 +868,182 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_231</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1087570621468927</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['C', 'G', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_106</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_143</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'D']]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(9.236303, 12.162018)]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(59.224321, 65.737518)]</t>
+          <t>[('0:00:39.840000', '0:00:47.280000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
+          <t>[('0:01:14.800000', '0:01:21.060000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7']]</t>
-        </is>
+          <t>schubert-winterreise_18</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_141</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(18.3, 21.32)]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(5.7, 12.08)]</t>
+          <t>[('0:00:47.800000', '0:01:38.980000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:47.860000', '0:01:35.840000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:min', 'A#:min'], ['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_210</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_105</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(12.38, 16.42), (29.5, 31.64)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(12.54, 25.94), (69.24, 75.88)]</t>
+          <t>[('0:00:07.140000', '0:01:47.600000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:09.140000', '0:01:50.260000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_147</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.3939393939393939</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(1.92, 5.28)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(8.3, 14.36)]</t>
+          <t>[('0:00:19.780000', '0:00:25.820000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:01:01.300000', '0:01:10.460000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
@@ -1023,182 +1052,128 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>isophonics_78</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>isophonics_58</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.4377880184331797</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['D', 'A', 'E', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(12.42, 27.08), (73.62, 81.04)]</t>
+          <t>[['F', 'C', 'G', 'F', 'C']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(13.66, 17.9), (31.6, 33.8)]</t>
+          <t>[('0:01:40.421065', '0:01:48.362290')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:41.895260', '0:00:59.802639')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_206</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(1.44, 6.66)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(43.18, 45.1)]</t>
+          <t>[('0:00:22.600000', '0:00:25.720000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:58.680000', '0:01:01.260000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.07146401985111663</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:min', 'G:min/5', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#']]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(27.789047, 31.109501)]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(99.6, 111.62)]</t>
+          <t>[('0:01:01.540000', '0:01:07.900000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_22</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_152</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(8.98, 20.58)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(13.66, 17.9)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:01:00.680000', '0:01:06.800000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
